--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -723,11 +723,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>344</v>
+          <t>Zithrox 20ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -746,11 +746,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
+          <t>Zithrox 50ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="7">

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -723,11 +723,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
+          <t>Zithrox 50ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="6">
@@ -746,11 +746,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>344</v>
+          <t>Zithrox 20ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -723,11 +723,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>344</v>
+          <t>Zithrox 20ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -746,11 +746,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
+          <t>Zithrox 50ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="7">

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,11 +723,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
+          <t>Zithrox 50ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="6">
@@ -746,11 +746,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>344</v>
+          <t>Zithrox 20ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Osticare</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -841,25 +841,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Osticare Tablet 30's</t>
+          <t>Oradin 60ml Suspension</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>61 - 90 Days</t>
+          <t>31 - 60 Days</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oradin</t>
+          <t>Osticare</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -867,11 +864,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oradin 60ml Suspension</t>
+          <t>Osticare Tablet 30's</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Toti</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -890,10 +890,33 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>61 - 90 Days</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Toti</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Toti 100ml Syrup</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>14</v>
       </c>
     </row>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naprox</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -677,22 +677,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Naprox Plus 500mg Tablet - 36's</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
+          <t>Flucloxin 100ml Dry Suspension</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toperin</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -700,22 +700,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Toperin 50mg Tablet - 60's</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+          <t>Flucloxin 500mg Capsule 40's</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Mebidal</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -723,22 +726,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>344</v>
+          <t>Mebidal Tablet</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Naprox</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -746,22 +749,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
+          <t>Naprox Plus 500mg Tablet - 36's</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Osticare</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -769,11 +772,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flucloxin 100ml Dry Suspension</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>22</v>
+          <t>Osticare Tablet 30's</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -784,7 +790,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -792,25 +798,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flucloxin 500mg Capsule 40's</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mebidal</t>
+          <t>Dinafex</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -818,17 +821,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mebidal Tablet</t>
+          <t>Dinafex 50ml Suspension</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,18 +848,18 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Osticare</t>
+          <t>Toti</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -864,14 +867,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Osticare Tablet 30's</t>
-        </is>
+          <t>Toti 100ml Syrup</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -882,7 +888,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oradin</t>
+          <t>Zithrox</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -890,34 +896,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oradin 60ml Suspension</t>
+          <t>Zithrox 35ml Dry Suspension</t>
         </is>
       </c>
       <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>61 - 90 Days</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Toti</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Toti 100ml Syrup</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,12 +641,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augment</t>
+          <t>Osticare</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -654,22 +654,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Augment 1.2g IV Injection 1's</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>20</v>
+          <t>Osticare Tablet 30's</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naprox</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -677,22 +680,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Naprox Plus 500mg Tablet - 36's</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
+          <t>Flucloxin 100ml Dry Suspension</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toperin</t>
+          <t>Mebidal</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -700,22 +703,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Toperin 50mg Tablet - 60's</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+          <t>Mebidal Tablet</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Naprox</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -723,22 +726,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zithrox 50ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>344</v>
+          <t>Naprox Plus 500mg Tablet - 36's</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 - 15 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zithrox</t>
+          <t>Flucloxin</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -746,11 +749,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zithrox 20ml Powder for Suspension</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
+          <t>Flucloxin 500mg Capsule 40's</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +767,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Oradin</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -769,11 +775,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flucloxin 100ml Dry Suspension</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>22</v>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -784,7 +790,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flucloxin</t>
+          <t>Toti</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -792,25 +798,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flucloxin 500mg Capsule 40's</t>
+          <t>Toti 100ml Syrup</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mebidal</t>
+          <t>Toti</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -818,22 +821,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mebidal Tablet</t>
-        </is>
-      </c>
-      <c r="AC9" t="n">
-        <v>24</v>
+          <t>Toti 100ml Syrup</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Osticare</t>
+          <t>Zithrox</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -841,11 +847,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Osticare Tablet 30's</t>
+          <t>Zithrox 35ml Dry Suspension</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
@@ -859,7 +865,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oradin</t>
+          <t>Dinafex</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -867,22 +873,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Oradin 60ml Suspension</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
+          <t>Dinafex 50ml Suspension</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>61 - 90 Days</t>
+          <t>91 - 180 Days</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Toti</t>
+          <t>Dorenta</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -890,11 +896,548 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Dorenta 100ml Syrup</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zithrox</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Zithrox 35ml Dry Suspension</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zithrox</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Zithrox 20ml Powder for Suspension</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Flucloxin</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Flucloxin 100ml Dry Suspension</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mebidal</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mebidal Tablet</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oradin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Toti</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Toti 100ml Syrup</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>14</v>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Augment</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Augment 100ml PFS</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Naprox</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Naprox Plus 500mg Tablet - 36's</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ontin</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ontin 60ml Syrup</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Augment</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Augment 1.2g IV Injection 1's</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ketonic</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ketonic 60mg IM Injection</t>
+        </is>
+      </c>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ketonic</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ketonic 30mg IM/IV Injection</t>
+        </is>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Flucloxin</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Flucloxin 500mg Capsule 40's</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Quinox</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Quinox 100ml IV Infusion</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Etorix</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Etorix 60mg Tablet 50's</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Quinox</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Quinox 100ml IV Infusion</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>23</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Etorix</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Etorix 90mg Tablet 40's</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Visomox</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Visomox 400mg FC Tablet 10's</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>79</v>
+      </c>
+      <c r="G30" t="n">
+        <v>191</v>
+      </c>
+      <c r="H30" t="n">
+        <v>37</v>
+      </c>
+      <c r="J30" t="n">
+        <v>167</v>
+      </c>
+      <c r="L30" t="n">
+        <v>215</v>
+      </c>
+      <c r="N30" t="n">
+        <v>90</v>
+      </c>
+      <c r="R30" t="n">
+        <v>192</v>
+      </c>
+      <c r="U30" t="n">
+        <v>219</v>
+      </c>
+      <c r="V30" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ontin</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ontin 10mg Tablet</t>
+        </is>
+      </c>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Oradin</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Oradin 60ml Suspension</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mebidal</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mebidal Tablet</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -1285,9 +1285,6 @@
       <c r="S28" t="n">
         <v>6</v>
       </c>
-      <c r="T28" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1332,34 +1329,34 @@
         </is>
       </c>
       <c r="E30" t="n">
+        <v>69</v>
+      </c>
+      <c r="G30" t="n">
+        <v>172</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22</v>
+      </c>
+      <c r="J30" t="n">
+        <v>163</v>
+      </c>
+      <c r="L30" t="n">
+        <v>201</v>
+      </c>
+      <c r="N30" t="n">
         <v>79</v>
       </c>
-      <c r="G30" t="n">
-        <v>191</v>
-      </c>
-      <c r="H30" t="n">
-        <v>37</v>
-      </c>
-      <c r="J30" t="n">
-        <v>167</v>
-      </c>
-      <c r="L30" t="n">
-        <v>215</v>
-      </c>
-      <c r="N30" t="n">
-        <v>90</v>
-      </c>
       <c r="R30" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="U30" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="V30" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AF30" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -661,13 +661,13 @@
         <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -678,56 +678,47 @@
       <c r="M2" t="n">
         <v>57</v>
       </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
       <c r="P2" t="n">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="Q2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
         <v>37</v>
       </c>
       <c r="U2" t="n">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="V2" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +741,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
         <v>172</v>
       </c>
       <c r="I3" t="n">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="J3" t="n">
         <v>96</v>
@@ -765,7 +756,7 @@
         <v>48</v>
       </c>
       <c r="N3" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O3" t="n">
         <v>39</v>
@@ -774,7 +765,7 @@
         <v>240</v>
       </c>
       <c r="R3" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="S3" t="n">
         <v>48</v>
@@ -801,10 +792,10 @@
         <v>336</v>
       </c>
       <c r="AG3" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,12 +641,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>61 - 90 Days</t>
+          <t>31 - 60 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Freshtear P</t>
+          <t>Edenil</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -654,91 +654,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Freshtear P 10ml Ophthalmic Solution</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F2" t="n">
-        <v>123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33</v>
-      </c>
-      <c r="J2" t="n">
-        <v>33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19</v>
-      </c>
-      <c r="M2" t="n">
-        <v>57</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>129</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>31</v>
-      </c>
-      <c r="S2" t="n">
-        <v>37</v>
-      </c>
-      <c r="U2" t="n">
-        <v>585</v>
-      </c>
-      <c r="V2" t="n">
-        <v>209</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>332</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>109</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>123</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI2" t="n">
+          <t>Edenil 20mg Tablet 50's</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>91 - 180 Days</t>
+          <t>31 - 60 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Freshtear P</t>
+          <t>Anapril</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -746,76 +677,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Freshtear P 10ml Ophthalmic Solution</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>95</v>
-      </c>
-      <c r="H3" t="n">
-        <v>172</v>
+          <t>Anapril 5mg Tablet</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>272</v>
-      </c>
-      <c r="J3" t="n">
-        <v>96</v>
-      </c>
-      <c r="L3" t="n">
-        <v>48</v>
-      </c>
-      <c r="N3" t="n">
-        <v>144</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>240</v>
-      </c>
-      <c r="R3" t="n">
-        <v>142</v>
-      </c>
-      <c r="S3" t="n">
-        <v>48</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1248</v>
-      </c>
-      <c r="V3" t="n">
-        <v>288</v>
-      </c>
-      <c r="W3" t="n">
-        <v>103</v>
-      </c>
-      <c r="X3" t="n">
-        <v>432</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>96</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>192</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>336</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>225</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>91 - 180 Days</t>
+          <t>31 - 60 Days</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Levomax OS</t>
+          <t>Cardobis</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -823,22 +700,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Levomax TS 5ml Ophthalmic Solution</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>13</v>
+          <t>Cardobis 2.5 FC Tablet 30's</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>91 - 180 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dextor OPT</t>
+          <t>Rivarox</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -846,14 +723,57 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dextor C 5ml Ophthalmic Solution</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>27</v>
-      </c>
-      <c r="U5" t="n">
-        <v>19</v>
+          <t>Rivarox 2.5mg Tablet</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>61 - 90 Days</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Noficon</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Noficon 200mg Capsule</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glunor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Glunor XR Tablet</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,12 +641,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edenil</t>
+          <t>Losectil</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -654,22 +654,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Edenil 20mg Tablet 50's</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+          <t>Losectil V 20mg Capsule</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31 - 60 Days</t>
+          <t>16 - 30 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anapril</t>
+          <t>Losectil</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -677,11 +677,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Anapril 5mg Tablet</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
+          <t>Losectil MUPS 20mg Tablet</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -692,7 +692,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardobis</t>
+          <t>Losectil</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -700,22 +700,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cardobis 2.5 FC Tablet 30's</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
-        <v>4</v>
+          <t>Losectil 40mg IV Injection</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>61 - 90 Days</t>
+          <t>31 - 60 Days</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rivarox</t>
+          <t>Topiclo</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rivarox 2.5mg Tablet</t>
+          <t>Topiclo S 6% 10gm Ointment</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Noficon</t>
+          <t>Esoral</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -746,22 +746,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Noficon 200mg Capsule</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
+          <t>Esoral 40mg IV Injection</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>91 - 180 Days</t>
+          <t>61 - 90 Days</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glunor</t>
+          <t>Hairgrow</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -769,11 +769,438 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Glunor XR Tablet</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
+          <t>Hairgrow 5% Topical Solution 60ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>61 - 90 Days</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hairgrow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hairgrow 2% Topical Solution 60ml</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>61 - 90 Days</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Losectil V 40mg Capsule</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>61 - 90 Days</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H-QUIN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>H-QUIN 200mg FC Tablet 20's</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Esoral</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Esoral 20mg Capsule 60's</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orogurd</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Orogurd 15gm Oral Gel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Esoral</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Esoral 40mg IV Injection</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Remivir</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Remivir 100mg Lyophilized IV Injection 1's</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>19</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Losectil V 40mg Capsule</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facid</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Facid 10gm BT Cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mycofin</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mycofin 5gm Cream</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Losectil 40mg IV Injection</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>181</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Losectil</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Losectil 20mg PFS 50's</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>91 - 180 Days</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Panoral</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Panoral 40mg Tablet</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16</v>
+      </c>
+      <c r="X21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Remivir</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Remivir 100mg Lyophilized IV Injection 1's</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>39</v>
+      </c>
+      <c r="N22" t="n">
+        <v>24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>24</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>116</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Licnil</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Licnil 117gm Lotion</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>181 - 210 Days</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Flucoder</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Flucoder 200mg Capsule - 10's</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -1138,11 +1138,8 @@
       <c r="P22" t="n">
         <v>24</v>
       </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
       <c r="V22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>116</v>
@@ -1151,10 +1148,10 @@
         <v>40</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -78,74 +78,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -957,7 +889,7 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1051,9 +983,6 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>136</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1098,7 +1027,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
         <v>16</v>
@@ -1107,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1130,28 +1059,22 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
         <v>24</v>
       </c>
       <c r="P22" t="n">
-        <v>24</v>
-      </c>
-      <c r="V22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AB22" t="n">
         <v>40</v>
       </c>
-      <c r="AD22" t="n">
-        <v>20</v>
-      </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1197,7 +1120,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/aging_stock_summary_copy.xlsx
+++ b/Data/aging_stock_summary_copy.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -78,6 +78,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,12 +641,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16 - 30 Days</t>
+          <t>91 - 180 Days</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Losectil</t>
+          <t>Glunor</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -586,22 +654,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Losectil V 20mg Capsule</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+          <t>Glunor 850mg Tablet</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16 - 30 Days</t>
+          <t>181 - 210 Days</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Losectil</t>
+          <t>Dietil</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -609,518 +677,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Losectil MUPS 20mg Tablet</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>31 - 60 Days</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Losectil</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Losectil 40mg IV Injection</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>31 - 60 Days</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Topiclo</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Topiclo S 6% 10gm Ointment</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+          <t>Dietil 120mg Capsule</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>126</v>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>61 - 90 Days</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Esoral</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Esoral 40mg IV Injection</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>61 - 90 Days</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hairgrow</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Hairgrow 5% Topical Solution 60ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>61 - 90 Days</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hairgrow</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hairgrow 2% Topical Solution 60ml</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>61 - 90 Days</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Losectil</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Losectil V 40mg Capsule</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>61 - 90 Days</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>H-QUIN</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>H-QUIN 200mg FC Tablet 20's</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Esoral</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Esoral 20mg Capsule 60's</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Orogurd</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Orogurd 15gm Oral Gel</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Esoral</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Esoral 40mg IV Injection</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Remivir</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Remivir 100mg Lyophilized IV Injection 1's</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>19</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Losectil</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Losectil V 40mg Capsule</t>
-        </is>
-      </c>
-      <c r="AE15" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Facid</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Facid 10gm BT Cream</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mycofin</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Mycofin 5gm Cream</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Losectil</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Losectil</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Losectil 40mg IV Injection</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>181</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Losectil</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Losectil 20mg PFS 50's</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>91 - 180 Days</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Panoral</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Panoral 40mg Tablet</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>16</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="X21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>181 - 210 Days</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Remivir</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Remivir 100mg Lyophilized IV Injection 1's</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
-      </c>
-      <c r="N22" t="n">
-        <v>24</v>
-      </c>
-      <c r="P22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>105</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>181 - 210 Days</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Licnil</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Licnil 117gm Lotion</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>181 - 210 Days</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Flucoder</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>23</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Flucoder 200mg Capsule - 10's</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
